--- a/시장분석용_정보/시장분석용_4689035000.xlsx
+++ b/시장분석용_정보/시장분석용_4689035000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>7290</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202005</v>
@@ -696,10 +600,10 @@
         <v>4158211082</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4689035000</v>
@@ -708,7 +612,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>313607</v>
@@ -720,50 +624,50 @@
         <v>28000</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>100</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>100</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>100</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>10377</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202007</v>
@@ -842,10 +698,10 @@
         <v>4158211082</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4689035000</v>
@@ -854,7 +710,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>301881</v>
@@ -866,16 +722,16 @@
         <v>19667</v>
       </c>
       <c r="O3">
-        <v>89.83</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>84.75</v>
+      </c>
+      <c r="R3">
         <v>10.17</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -887,31 +743,31 @@
         <v>5.08</v>
       </c>
       <c r="V3">
-        <v>84.75</v>
+        <v>0</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>10.17</v>
       </c>
-      <c r="X3">
-        <v>94.92</v>
-      </c>
-      <c r="Y3">
-        <v>5.08</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
-        <v>0</v>
+        <v>89.83</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>84.75</v>
-      </c>
-      <c r="AH3">
-        <v>10.17</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>5.08</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>10.17</v>
-      </c>
-      <c r="AT3">
-        <v>89.83</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>11928</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202008</v>
@@ -988,10 +796,10 @@
         <v>4158211082</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4689035000</v>
@@ -1000,7 +808,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>116737</v>
@@ -1012,20 +820,20 @@
         <v>7333</v>
       </c>
       <c r="O4">
-        <v>81.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>36.36</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>18.18</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>81.81999999999999</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
@@ -1033,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>45.45</v>
       </c>
       <c r="W4">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>81.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1054,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>45.45</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1065,64 +873,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>36.36</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>18.18</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>45.45</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>54.55</v>
-      </c>
-      <c r="AT4">
-        <v>45.45</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>15021</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202010</v>
@@ -1134,10 +894,10 @@
         <v>4158211082</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4689035000</v>
@@ -1146,7 +906,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>24951</v>
@@ -1158,50 +918,50 @@
         <v>2250</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>33.33</v>
+      </c>
+      <c r="X5">
+        <v>66.67</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <v>100</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>33.33</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>66.67</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -1211,64 +971,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>33.33</v>
-      </c>
-      <c r="AN5">
-        <v>66.67</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>100</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>16575</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202011</v>
@@ -1280,10 +992,10 @@
         <v>4158211082</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4689035000</v>
@@ -1292,7 +1004,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>73822</v>
@@ -1304,7 +1016,7 @@
         <v>4833</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1313,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>31.03</v>
+        <v>68.97</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>68.97</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1328,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>20.69</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="Y6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1343,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>89.66</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1357,64 +1069,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>68.97</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>20.69</v>
-      </c>
-      <c r="AN6">
-        <v>10.34</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>10.34</v>
-      </c>
-      <c r="AS6">
-        <v>89.66</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>27400</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202106</v>
@@ -1426,10 +1090,10 @@
         <v>4158211082</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4689035000</v>
@@ -1438,7 +1102,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>176338</v>
@@ -1450,7 +1114,7 @@
         <v>17500</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1459,108 +1123,60 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>14.29</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>14.29</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>85.70999999999999</v>
       </c>
-      <c r="T7">
-        <v>14.29</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>14.29</v>
-      </c>
-      <c r="Z7">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>14.29</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>14.29</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>85.70999999999999</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>30533</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202108</v>
@@ -1572,10 +1188,10 @@
         <v>4158211082</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4689035000</v>
@@ -1584,7 +1200,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>17350</v>
@@ -1596,7 +1212,7 @@
         <v>1500</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1605,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1629,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>50</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1649,64 +1265,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>50</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>50</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>50</v>
-      </c>
-      <c r="AS8">
-        <v>50</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>35234</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202111</v>
@@ -1718,10 +1286,10 @@
         <v>4158211082</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4689035000</v>
@@ -1730,7 +1298,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>313996</v>
@@ -1742,7 +1310,7 @@
         <v>20000</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>8.33</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1751,16 +1319,16 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>83.33</v>
-      </c>
-      <c r="S9">
-        <v>8.33</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
       </c>
       <c r="V9">
         <v>8.33</v>
@@ -1769,90 +1337,42 @@
         <v>0</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>8.33</v>
       </c>
-      <c r="Y9">
-        <v>83.33</v>
-      </c>
-      <c r="Z9">
-        <v>8.33</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
-        <v>0</v>
+        <v>91.67</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>83.33</v>
-      </c>
-      <c r="AL9">
-        <v>8.33</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>8.33</v>
-      </c>
-      <c r="AS9">
-        <v>91.67</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>41470</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202203</v>
@@ -1864,10 +1384,10 @@
         <v>4158211082</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4689035000</v>
@@ -1876,7 +1396,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>45585</v>
@@ -1888,32 +1408,32 @@
         <v>3000</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>100</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>33.33</v>
-      </c>
-      <c r="U10">
-        <v>33.33</v>
-      </c>
-      <c r="V10">
-        <v>33.33</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
         <v>0</v>
       </c>
@@ -1921,84 +1441,36 @@
         <v>0</v>
       </c>
       <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>100</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>100</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>100</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>43033</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202204</v>
@@ -2010,10 +1482,10 @@
         <v>4158211082</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4689035000</v>
@@ -2022,7 +1494,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>107925</v>
@@ -2034,19 +1506,19 @@
         <v>4500</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="S11">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2055,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="X11">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2076,75 +1548,27 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>27.78</v>
       </c>
       <c r="AF11">
-        <v>27.78</v>
-      </c>
-      <c r="AG11">
-        <v>27.78</v>
-      </c>
-      <c r="AH11">
-        <v>16.67</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>27.78</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>44.44</v>
-      </c>
-      <c r="AT11">
-        <v>27.78</v>
-      </c>
-      <c r="AU11">
-        <v>27.78</v>
-      </c>
-      <c r="AV11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>44604</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202205</v>
@@ -2156,10 +1580,10 @@
         <v>4158211082</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4689035000</v>
@@ -2168,7 +1592,7 @@
         <v>180.6060606060606</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>38346</v>
@@ -2180,7 +1604,7 @@
         <v>2500</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2192,93 +1616,45 @@
         <v>40</v>
       </c>
       <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>40</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>20</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>60</v>
       </c>
-      <c r="Y12">
-        <v>40</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>40</v>
-      </c>
-      <c r="AI12">
-        <v>20</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>40</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>60</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
